--- a/derivatives/h2_palm/h2_results.xlsx
+++ b/derivatives/h2_palm/h2_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/h2_palm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04AFE2A-A6A5-4149-A5D7-B2972700FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D74AC-B0D3-8F42-BEF4-8051B4D3787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22200" windowHeight="12040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,13 +174,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1743,7 +1789,7 @@
       <c r="I40" t="s">
         <v>6</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K40" t="s">
@@ -1816,7 +1862,7 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D42">
@@ -1837,7 +1883,7 @@
       <c r="I42" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="K42" s="1">
@@ -1863,7 +1909,7 @@
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D43">
@@ -1884,7 +1930,7 @@
       <c r="I43">
         <v>0.1138</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="K43">
